--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B6CEEF-728D-4101-88AA-37EE33187EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74178B-A1F9-4E43-9876-6CBC5B9AA0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,16 +197,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CreateEffect_Death_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Null</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>没有死亡表现</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Death_1</t>
   </si>
 </sst>
 </file>
@@ -673,7 +672,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -847,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
@@ -855,7 +854,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -877,7 +876,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="11">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -892,10 +891,10 @@
       <c r="F8" s="7"/>
       <c r="G8" s="11"/>
       <c r="H8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A74178B-A1F9-4E43-9876-6CBC5B9AA0D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39897A-1C05-41DF-BCEA-7E3B4F42082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>##var</t>
   </si>
@@ -205,7 +194,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>PlayAnimator_Die</t>
+  </si>
+  <si>
     <t>EffectCreate_Death_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -669,23 +662,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.77734375" customWidth="1"/>
+    <col min="6" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,7 +710,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +740,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -779,7 +772,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -803,7 +796,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -841,7 +834,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -860,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -876,7 +869,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="11">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -885,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -894,6 +887,14 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39897A-1C05-41DF-BCEA-7E3B4F42082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A89DA1-A4CF-45E1-A0A4-6505EAA2B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -198,6 +209,14 @@
   </si>
   <si>
     <t>EffectCreate_Death_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightningTrailBullet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡表现(延迟消失)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -662,23 +681,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.75" customWidth="1"/>
+    <col min="6" max="11" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -710,7 +729,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -740,7 +759,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -772,7 +791,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -796,7 +815,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -834,7 +853,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -853,48 +872,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="C7" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
-        <v>DeathShow_1</v>
+        <v>DeathShow_LightningTrailBullet</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>DeathShow_1</v>
+      </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="11"/>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>32</v>
+      <c r="I8" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="11"/>
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A89DA1-A4CF-45E1-A0A4-6505EAA2B9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E9452F-0815-4CDE-BEFE-671CB0C10A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -217,6 +207,31 @@
   </si>
   <si>
     <t>死亡表现(延迟消失)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_BaseDie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大本营死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Show_BaseDie</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -404,13 +419,27 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -681,23 +710,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.77734375" customWidth="1"/>
+    <col min="6" max="11" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,7 +758,7 @@
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +788,7 @@
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -791,7 +820,7 @@
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -815,7 +844,7 @@
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -853,7 +882,7 @@
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
@@ -872,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
@@ -891,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
@@ -916,7 +945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -928,12 +957,29 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -942,6 +988,9 @@
     <mergeCell ref="H3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E9452F-0815-4CDE-BEFE-671CB0C10A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD8FB0-8B6C-4D1E-9F76-DE3DBDFB5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -234,12 +233,57 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>DeathShow_Dan1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物蛋1自爆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_Monster_Dan2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackArea_Monster_Dan2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectDeal_Hide</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DeathShow_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tower</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔死亡表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectCreate_TowerDie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +330,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -388,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -401,6 +452,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -710,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -744,12 +802,12 @@
       <c r="G1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -806,12 +864,12 @@
       <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="21"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -978,9 +1036,67 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="12" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -988,7 +1104,7 @@
     <mergeCell ref="H3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="I11">
+  <conditionalFormatting sqref="I11:I13">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEBD8FB0-8B6C-4D1E-9F76-DE3DBDFB5927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44089A4F-9581-44F6-9940-01ACCA048606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>EffectCreate_TowerDie</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeathShow_Skull</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅死亡表现</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +494,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -768,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1095,8 +1113,49 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>1.5</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1105,6 +1164,9 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I11:I13">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44089A4F-9581-44F6-9940-01ACCA048606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EEED55-AB43-4E4E-9503-7EC0E6AB4C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -132,27 +143,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actionCondition1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actionCondition2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟多久后触发action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>触发action</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -284,6 +279,54 @@
   </si>
   <si>
     <t>骷髅死亡表现</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition1SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chkCondition2SelectObj</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件1(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件1对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查条件2(cond11&amp;cond12|cond21&amp;cond22)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测条件2对象选择器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterCondition2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +409,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -415,9 +458,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -427,11 +468,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -447,7 +497,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -470,22 +520,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -786,23 +851,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.75" customWidth="1"/>
+    <col min="6" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" style="23" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -818,23 +887,23 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
+        <v>21</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
     </row>
-    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,20 +920,28 @@
         <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
+        <v>55</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>47</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
     </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -880,23 +957,23 @@
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
+        <v>22</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
     </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -912,15 +989,15 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -936,34 +1013,42 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
+        <v>53</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
@@ -971,18 +1056,20 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
@@ -990,15 +1077,18 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L7"/>
+      <c r="M7" s="14"/>
+      <c r="O7" s="14"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1009,7 +1099,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1018,10 +1108,13 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8" s="14"/>
+      <c r="O8" s="14"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -1030,23 +1123,23 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="11">
         <v>5</v>
@@ -1055,26 +1148,31 @@
         <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12">
         <v>2</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1083,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="14"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="O15" s="14"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1110,18 +1208,21 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="I17" s="13"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>1.8</v>
@@ -1130,37 +1231,82 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="H21">
         <v>1.5</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>42</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="14"/>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L24"/>
+      <c r="M24" s="14"/>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="24"/>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L27"/>
+      <c r="M27" s="14"/>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M28" s="14"/>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="L29"/>
+      <c r="M29" s="14"/>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="14"/>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33"/>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="M36" s="14"/>
+      <c r="O36" s="14"/>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L37"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="H1:O1"/>
+    <mergeCell ref="H3:O3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="I11:I13">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_DeathShow.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EEED55-AB43-4E4E-9503-7EC0E6AB4C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9266F96E-C6FE-4571-9B14-2BD58A1BBBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,10 +139,6 @@
     <t>delayTime</t>
   </si>
   <si>
-    <t>action_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>延迟多久后触发action</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -327,6 +323,10 @@
   </si>
   <si>
     <t>filterCondition2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actionIds</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -520,37 +520,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +854,7 @@
   <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H3" sqref="H3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -865,10 +865,10 @@
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" style="23" customWidth="1"/>
-    <col min="13" max="13" width="25.21875" style="23" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="23" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" style="23" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" style="21" customWidth="1"/>
+    <col min="13" max="13" width="25.21875" style="21" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -887,18 +887,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
       <c r="P1"/>
       <c r="Q1"/>
       <c r="R1"/>
@@ -917,25 +917,25 @@
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="P2"/>
       <c r="Q2"/>
@@ -957,18 +957,18 @@
         <v>5</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
@@ -989,10 +989,10 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -1013,31 +1013,31 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="N5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>50</v>
-      </c>
-      <c r="O5" s="22" t="s">
-        <v>51</v>
       </c>
       <c r="P5"/>
       <c r="Q5"/>
@@ -1045,10 +1045,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="str">
         <f>B6&amp;"_"&amp;C6</f>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="11">
         <v>0</v>
@@ -1066,10 +1066,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="str">
         <f>B7&amp;"_"&amp;C7</f>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="11">
         <v>1</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="11">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8"/>
       <c r="M8" s="14"/>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1131,15 +1131,15 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="11">
         <v>5</v>
@@ -1148,17 +1148,17 @@
         <v>0</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="14"/>
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="H12">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12"/>
       <c r="M12" s="14"/>
@@ -1169,10 +1169,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1189,17 +1189,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="14"/>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16"/>
       <c r="M16" s="14"/>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G18">
         <v>1.8</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.25">
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M19" s="14"/>
       <c r="O19" s="14"/>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L20"/>
       <c r="M20" s="14"/>
@@ -1260,7 +1260,7 @@
         <v>1.5</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.25">
@@ -1273,7 +1273,7 @@
       <c r="O24" s="14"/>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="L26" s="24"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="L27"/>
